--- a/csec/database/French data.xlsx
+++ b/csec/database/French data.xlsx
@@ -11,12 +11,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>CSEC French June 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1FAutN-0uFWHfVYYjN2I0hUmQLEDz5Xic</t>
+  </si>
+  <si>
+    <t>CSEC French June 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>1XQhE2aJg1QiCIPkbovbRDgLJ4W9ZdWRm</t>
+  </si>
+  <si>
+    <t>CSEC French June 2018 P2.pdf</t>
+  </si>
+  <si>
+    <t>1m0ywTA27IpWFDIHYftZ7qYn8sD6obAnv</t>
+  </si>
+  <si>
+    <t>CSEC French June 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1_9M_5tDc51aI13rd4tBN6SMfPKkxj-BD</t>
+  </si>
+  <si>
+    <t>CSEC French June 2009 P3.pdf</t>
+  </si>
+  <si>
+    <t>1y73xvDlvKtoYR6upqFLRK-grzdXSbaq3</t>
+  </si>
+  <si>
+    <t>CSEC French June 2008 P3.pdf</t>
+  </si>
+  <si>
+    <t>1GXpHZRpUkvrbt3YKrbfvv9J8ET-np-5W</t>
+  </si>
+  <si>
+    <t>CSEC French June 2007 P3.pdf</t>
+  </si>
+  <si>
+    <t>1WGUTmbxrGWO3TR_CJtUXy7Z8JH2zQ04g</t>
+  </si>
+  <si>
+    <t>CSEC French June 2006 P3.pdf</t>
+  </si>
+  <si>
+    <t>1WkTS-penMeDMlnzTCmk92kLqQ3IykpCo</t>
+  </si>
+  <si>
+    <t>CSEC French June 2005 P3.pdf</t>
+  </si>
+  <si>
+    <t>1MBrOAi19brexlWTuUKTeT3O_AibhDuZk</t>
+  </si>
+  <si>
+    <t>CSEC French June 2017 P3.pdf</t>
+  </si>
+  <si>
+    <t>1W12ghiFnYTNa6_Z1rDfvazZwQP8nlwrM</t>
+  </si>
+  <si>
+    <t>CSEC French June 2013 P3.pdf</t>
+  </si>
+  <si>
+    <t>1sIVmR6Sm61a0G2TDk1i_iPpecggo3PMZ</t>
+  </si>
+  <si>
+    <t>CSEC French June 2016 P3.pdf</t>
+  </si>
+  <si>
+    <t>14vfzpnx_1SI68ZLvGtaEJd8HI7Io5eEO</t>
+  </si>
+  <si>
+    <t>CSEC French June 2015 P3.pdf</t>
+  </si>
+  <si>
+    <t>1NtEBaR-jT1MmPFLJRsDhmRyo_sFOCLdw</t>
+  </si>
+  <si>
+    <t>CSEC French June 2014 P3.pdf</t>
+  </si>
+  <si>
+    <t>14IP-crTdGr9EU9xpEXa4Vm1zlVyTDNYD</t>
+  </si>
+  <si>
+    <t>CSEC French June 2011 P3.pdf</t>
+  </si>
+  <si>
+    <t>1oAEI89zSRDEWHd4jPoZLlD63G2ipy439</t>
+  </si>
+  <si>
+    <t>CSEC French June 2012 P3.pdf</t>
+  </si>
+  <si>
+    <t>1Gah_uz5uPJHrV4wDz44pDI5zf8T-G3YN</t>
+  </si>
+  <si>
+    <t>CSEC French June 2010 P3.pdf</t>
+  </si>
+  <si>
+    <t>1FrWINZnMMtGCuXCB_WHCzEaDLPx0uZch</t>
   </si>
   <si>
     <t>CSEC French June 2009 P2.pdf</t>
@@ -463,6 +565,142 @@
         <v>27</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
